--- a/data/analysis/social_media_analytics/pivot_tables/accreditation-country/museum_activity_groups__var2-accreditation-country.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/accreditation-country/museum_activity_groups__var2-accreditation-country.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -446,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:41">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -484,102 +487,156 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:41">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -645,61 +702,94 @@
         <v>0</v>
       </c>
       <c r="AB4">
+        <v>-2.1</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:41">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>2433578</v>
+        <v>1250719</v>
       </c>
       <c r="D5">
-        <v>1937.6</v>
+        <v>995.8</v>
       </c>
       <c r="E5">
-        <v>4775.4</v>
+        <v>2130.3</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>533</v>
+        <v>353</v>
       </c>
       <c r="I5">
-        <v>1806</v>
+        <v>1148.2</v>
       </c>
       <c r="J5">
-        <v>74441</v>
+        <v>43003</v>
       </c>
       <c r="K5">
         <v>1256</v>
       </c>
       <c r="L5">
-        <v>2448.3</v>
+        <v>1350.7</v>
       </c>
       <c r="M5">
-        <v>994</v>
+        <v>926</v>
       </c>
       <c r="N5">
-        <v>79.09999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="O5">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P5">
-        <v>476790</v>
+        <v>475903</v>
       </c>
       <c r="Q5">
-        <v>379.6</v>
+        <v>378.9</v>
       </c>
       <c r="R5">
-        <v>675</v>
+        <v>1688.6</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -708,43 +798,82 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>55.5</v>
       </c>
       <c r="V5">
-        <v>593.5</v>
+        <v>264.5</v>
       </c>
       <c r="W5">
-        <v>6335</v>
+        <v>46992</v>
       </c>
       <c r="X5">
         <v>1256</v>
       </c>
       <c r="Y5">
+        <v>507.9</v>
+      </c>
+      <c r="Z5">
+        <v>937</v>
+      </c>
+      <c r="AA5">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="AB5">
+        <v>1.4</v>
+      </c>
+      <c r="AC5">
+        <v>476790</v>
+      </c>
+      <c r="AD5">
+        <v>379.6</v>
+      </c>
+      <c r="AE5">
+        <v>675</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>593.5</v>
+      </c>
+      <c r="AJ5">
+        <v>6335</v>
+      </c>
+      <c r="AK5">
+        <v>1256</v>
+      </c>
+      <c r="AL5">
         <v>843.9</v>
       </c>
-      <c r="Z5">
+      <c r="AM5">
         <v>565</v>
       </c>
-      <c r="AA5">
+      <c r="AN5">
         <v>45</v>
       </c>
-      <c r="AB5">
+      <c r="AO5">
         <v>1.1</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:41">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>71818</v>
+        <v>27470</v>
       </c>
       <c r="D6">
-        <v>1751.7</v>
+        <v>670</v>
       </c>
       <c r="E6">
-        <v>4571.3</v>
+        <v>2327.7</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -753,37 +882,37 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1073</v>
+        <v>582</v>
       </c>
       <c r="J6">
-        <v>25383</v>
+        <v>14888</v>
       </c>
       <c r="K6">
         <v>41</v>
       </c>
       <c r="L6">
-        <v>2992.4</v>
+        <v>1445.8</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N6">
-        <v>58.5</v>
+        <v>46.3</v>
       </c>
       <c r="O6">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="P6">
-        <v>19162</v>
+        <v>13077</v>
       </c>
       <c r="Q6">
-        <v>467.4</v>
+        <v>319</v>
       </c>
       <c r="R6">
-        <v>1337.5</v>
+        <v>1623.2</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -795,40 +924,79 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>492</v>
+        <v>70</v>
       </c>
       <c r="W6">
-        <v>6887</v>
+        <v>10421</v>
       </c>
       <c r="X6">
         <v>41</v>
       </c>
       <c r="Y6">
+        <v>653.8</v>
+      </c>
+      <c r="Z6">
+        <v>20</v>
+      </c>
+      <c r="AA6">
+        <v>48.8</v>
+      </c>
+      <c r="AB6">
+        <v>0.2</v>
+      </c>
+      <c r="AC6">
+        <v>19162</v>
+      </c>
+      <c r="AD6">
+        <v>467.4</v>
+      </c>
+      <c r="AE6">
+        <v>1337.5</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>492</v>
+      </c>
+      <c r="AJ6">
+        <v>6887</v>
+      </c>
+      <c r="AK6">
+        <v>41</v>
+      </c>
+      <c r="AL6">
         <v>1474</v>
       </c>
-      <c r="Z6">
+      <c r="AM6">
         <v>13</v>
       </c>
-      <c r="AA6">
+      <c r="AN6">
         <v>31.7</v>
       </c>
-      <c r="AB6">
+      <c r="AO6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:41">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>464924</v>
+        <v>234286</v>
       </c>
       <c r="D7">
-        <v>1844.9</v>
+        <v>929.7</v>
       </c>
       <c r="E7">
-        <v>6168.3</v>
+        <v>3274.8</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -837,37 +1005,37 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>113.5</v>
+        <v>71.5</v>
       </c>
       <c r="I7">
-        <v>1516.8</v>
+        <v>892.2</v>
       </c>
       <c r="J7">
-        <v>68140</v>
+        <v>47580</v>
       </c>
       <c r="K7">
         <v>252</v>
       </c>
       <c r="L7">
-        <v>2942.6</v>
+        <v>1604.7</v>
       </c>
       <c r="M7">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="N7">
-        <v>62.7</v>
+        <v>57.9</v>
       </c>
       <c r="O7">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="P7">
-        <v>72603</v>
+        <v>72326</v>
       </c>
       <c r="Q7">
-        <v>288.1</v>
+        <v>287</v>
       </c>
       <c r="R7">
-        <v>670.1</v>
+        <v>1087.4</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -876,43 +1044,82 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V7">
-        <v>345.2</v>
+        <v>194.8</v>
       </c>
       <c r="W7">
-        <v>6448</v>
+        <v>9692</v>
       </c>
       <c r="X7">
         <v>252</v>
       </c>
       <c r="Y7">
+        <v>495.4</v>
+      </c>
+      <c r="Z7">
+        <v>146</v>
+      </c>
+      <c r="AA7">
+        <v>57.9</v>
+      </c>
+      <c r="AB7">
+        <v>0.6</v>
+      </c>
+      <c r="AC7">
+        <v>72603</v>
+      </c>
+      <c r="AD7">
+        <v>288.1</v>
+      </c>
+      <c r="AE7">
+        <v>670.1</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>345.2</v>
+      </c>
+      <c r="AJ7">
+        <v>6448</v>
+      </c>
+      <c r="AK7">
+        <v>252</v>
+      </c>
+      <c r="AL7">
         <v>942.9</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>77</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>30.6</v>
       </c>
-      <c r="AB7">
+      <c r="AO7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:41">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>186944</v>
+        <v>61363</v>
       </c>
       <c r="D8">
-        <v>1850.9</v>
+        <v>607.6</v>
       </c>
       <c r="E8">
-        <v>4618</v>
+        <v>1033.9</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -921,37 +1128,37 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="I8">
-        <v>1315</v>
+        <v>791</v>
       </c>
       <c r="J8">
-        <v>30621</v>
+        <v>5793</v>
       </c>
       <c r="K8">
         <v>101</v>
       </c>
       <c r="L8">
-        <v>2709.3</v>
+        <v>1006</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="N8">
-        <v>68.3</v>
+        <v>60.4</v>
       </c>
       <c r="O8">
         <v>0.8</v>
       </c>
       <c r="P8">
-        <v>63873</v>
+        <v>11708</v>
       </c>
       <c r="Q8">
-        <v>632.4</v>
+        <v>115.9</v>
       </c>
       <c r="R8">
-        <v>1610.8</v>
+        <v>232.2</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -960,45 +1167,84 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="V8">
-        <v>602</v>
+        <v>144</v>
       </c>
       <c r="W8">
-        <v>13336</v>
+        <v>1312</v>
       </c>
       <c r="X8">
         <v>101</v>
       </c>
       <c r="Y8">
+        <v>188.8</v>
+      </c>
+      <c r="Z8">
+        <v>62</v>
+      </c>
+      <c r="AA8">
+        <v>61.4</v>
+      </c>
+      <c r="AB8">
+        <v>0.8</v>
+      </c>
+      <c r="AC8">
+        <v>63873</v>
+      </c>
+      <c r="AD8">
+        <v>632.4</v>
+      </c>
+      <c r="AE8">
+        <v>1610.8</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>52</v>
+      </c>
+      <c r="AI8">
+        <v>602</v>
+      </c>
+      <c r="AJ8">
+        <v>13336</v>
+      </c>
+      <c r="AK8">
+        <v>101</v>
+      </c>
+      <c r="AL8">
         <v>1252.4</v>
       </c>
-      <c r="Z8">
+      <c r="AM8">
         <v>51</v>
       </c>
-      <c r="AA8">
+      <c r="AN8">
         <v>50.5</v>
       </c>
-      <c r="AB8">
+      <c r="AO8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>1982</v>
+        <v>1479</v>
       </c>
       <c r="D9">
-        <v>86.2</v>
+        <v>64.3</v>
       </c>
       <c r="E9">
-        <v>344.4</v>
+        <v>251.1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1013,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="K9">
         <v>23</v>
       </c>
       <c r="L9">
-        <v>495.5</v>
+        <v>369.8</v>
       </c>
       <c r="M9">
         <v>4</v>
@@ -1028,16 +1274,16 @@
         <v>17.4</v>
       </c>
       <c r="O9">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="P9">
-        <v>842</v>
+        <v>500</v>
       </c>
       <c r="Q9">
-        <v>36.6</v>
+        <v>21.7</v>
       </c>
       <c r="R9">
-        <v>135.2</v>
+        <v>93</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1052,37 +1298,76 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="X9">
         <v>23</v>
       </c>
       <c r="Y9">
+        <v>125</v>
+      </c>
+      <c r="Z9">
+        <v>4</v>
+      </c>
+      <c r="AA9">
+        <v>17.4</v>
+      </c>
+      <c r="AB9">
+        <v>-1.3</v>
+      </c>
+      <c r="AC9">
+        <v>842</v>
+      </c>
+      <c r="AD9">
+        <v>36.6</v>
+      </c>
+      <c r="AE9">
+        <v>135.2</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>619</v>
+      </c>
+      <c r="AK9">
+        <v>23</v>
+      </c>
+      <c r="AL9">
         <v>421</v>
       </c>
-      <c r="Z9">
+      <c r="AM9">
         <v>2</v>
       </c>
-      <c r="AA9">
+      <c r="AN9">
         <v>8.699999999999999</v>
       </c>
-      <c r="AB9">
+      <c r="AO9">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:41">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>1778506</v>
+        <v>636081</v>
       </c>
       <c r="D10">
-        <v>1423.9</v>
+        <v>509.3</v>
       </c>
       <c r="E10">
-        <v>4768.9</v>
+        <v>1272</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1091,37 +1376,37 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>809</v>
+        <v>497</v>
       </c>
       <c r="J10">
-        <v>72982</v>
+        <v>19900</v>
       </c>
       <c r="K10">
         <v>1249</v>
       </c>
       <c r="L10">
-        <v>2396.9</v>
+        <v>966.7</v>
       </c>
       <c r="M10">
-        <v>742</v>
+        <v>658</v>
       </c>
       <c r="N10">
-        <v>59.4</v>
+        <v>52.7</v>
       </c>
       <c r="O10">
         <v>0.4</v>
       </c>
       <c r="P10">
-        <v>395842</v>
+        <v>272425</v>
       </c>
       <c r="Q10">
-        <v>316.9</v>
+        <v>218.1</v>
       </c>
       <c r="R10">
-        <v>1487.8</v>
+        <v>1067.8</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1130,43 +1415,82 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V10">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="W10">
-        <v>36948</v>
+        <v>20111</v>
       </c>
       <c r="X10">
         <v>1249</v>
       </c>
       <c r="Y10">
+        <v>404.8</v>
+      </c>
+      <c r="Z10">
+        <v>673</v>
+      </c>
+      <c r="AA10">
+        <v>53.9</v>
+      </c>
+      <c r="AB10">
+        <v>0.5</v>
+      </c>
+      <c r="AC10">
+        <v>395842</v>
+      </c>
+      <c r="AD10">
+        <v>316.9</v>
+      </c>
+      <c r="AE10">
+        <v>1487.8</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>222</v>
+      </c>
+      <c r="AJ10">
+        <v>36948</v>
+      </c>
+      <c r="AK10">
+        <v>1249</v>
+      </c>
+      <c r="AL10">
         <v>1033.5</v>
       </c>
-      <c r="Z10">
+      <c r="AM10">
         <v>383</v>
       </c>
-      <c r="AA10">
+      <c r="AN10">
         <v>30.7</v>
       </c>
-      <c r="AB10">
+      <c r="AO10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:41">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>72980</v>
+        <v>50940</v>
       </c>
       <c r="D11">
-        <v>4865.3</v>
+        <v>3396</v>
       </c>
       <c r="E11">
-        <v>17694.4</v>
+        <v>12233.9</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1178,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>60.5</v>
+        <v>51.5</v>
       </c>
       <c r="J11">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="K11">
         <v>15</v>
       </c>
       <c r="L11">
-        <v>14596</v>
+        <v>10188</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -1196,16 +1520,16 @@
         <v>33.3</v>
       </c>
       <c r="O11">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="P11">
-        <v>675</v>
+        <v>21724</v>
       </c>
       <c r="Q11">
-        <v>45</v>
+        <v>1448.3</v>
       </c>
       <c r="R11">
-        <v>174.3</v>
+        <v>5378.6</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1217,40 +1541,79 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W11">
-        <v>675</v>
+        <v>20884</v>
       </c>
       <c r="X11">
         <v>15</v>
       </c>
       <c r="Y11">
+        <v>4344.8</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>33.3</v>
+      </c>
+      <c r="AB11">
+        <v>-0.5</v>
+      </c>
+      <c r="AC11">
         <v>675</v>
       </c>
-      <c r="Z11">
+      <c r="AD11">
+        <v>45</v>
+      </c>
+      <c r="AE11">
+        <v>174.3</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>675</v>
+      </c>
+      <c r="AK11">
+        <v>15</v>
+      </c>
+      <c r="AL11">
+        <v>675</v>
+      </c>
+      <c r="AM11">
         <v>1</v>
       </c>
-      <c r="AA11">
+      <c r="AN11">
         <v>6.7</v>
       </c>
-      <c r="AB11">
+      <c r="AO11">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:41">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>109848</v>
+        <v>24296</v>
       </c>
       <c r="D12">
-        <v>2072.6</v>
+        <v>458.4</v>
       </c>
       <c r="E12">
-        <v>5411.8</v>
+        <v>1113.8</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1259,37 +1622,37 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>915</v>
+        <v>269</v>
       </c>
       <c r="J12">
-        <v>24940</v>
+        <v>5535</v>
       </c>
       <c r="K12">
         <v>53</v>
       </c>
       <c r="L12">
-        <v>3543.5</v>
+        <v>934.5</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N12">
-        <v>58.5</v>
+        <v>49.1</v>
       </c>
       <c r="O12">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="P12">
-        <v>27526</v>
+        <v>5079</v>
       </c>
       <c r="Q12">
-        <v>519.4</v>
+        <v>95.8</v>
       </c>
       <c r="R12">
-        <v>1431.5</v>
+        <v>205</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1301,40 +1664,79 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>537</v>
+        <v>54</v>
       </c>
       <c r="W12">
-        <v>7664</v>
+        <v>915</v>
       </c>
       <c r="X12">
         <v>53</v>
       </c>
       <c r="Y12">
+        <v>220.8</v>
+      </c>
+      <c r="Z12">
+        <v>23</v>
+      </c>
+      <c r="AA12">
+        <v>43.4</v>
+      </c>
+      <c r="AB12">
+        <v>-0</v>
+      </c>
+      <c r="AC12">
+        <v>27526</v>
+      </c>
+      <c r="AD12">
+        <v>519.4</v>
+      </c>
+      <c r="AE12">
+        <v>1431.5</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>537</v>
+      </c>
+      <c r="AJ12">
+        <v>7664</v>
+      </c>
+      <c r="AK12">
+        <v>53</v>
+      </c>
+      <c r="AL12">
         <v>1529.2</v>
       </c>
-      <c r="Z12">
+      <c r="AM12">
         <v>18</v>
       </c>
-      <c r="AA12">
+      <c r="AN12">
         <v>34</v>
       </c>
-      <c r="AB12">
+      <c r="AO12">
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:41">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>180221</v>
+        <v>81255</v>
       </c>
       <c r="D13">
-        <v>744.7</v>
+        <v>335.8</v>
       </c>
       <c r="E13">
-        <v>2584.6</v>
+        <v>942.4</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1343,37 +1745,37 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>446.8</v>
+        <v>299</v>
       </c>
       <c r="J13">
-        <v>22943</v>
+        <v>8541</v>
       </c>
       <c r="K13">
         <v>242</v>
       </c>
       <c r="L13">
-        <v>1489.4</v>
+        <v>759.4</v>
       </c>
       <c r="M13">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="N13">
-        <v>50</v>
+        <v>44.2</v>
       </c>
       <c r="O13">
         <v>-0</v>
       </c>
       <c r="P13">
-        <v>88300</v>
+        <v>28799</v>
       </c>
       <c r="Q13">
-        <v>364.9</v>
+        <v>119</v>
       </c>
       <c r="R13">
-        <v>2431.5</v>
+        <v>546.1</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1385,40 +1787,79 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="W13">
-        <v>36858</v>
+        <v>6050</v>
       </c>
       <c r="X13">
         <v>242</v>
       </c>
       <c r="Y13">
+        <v>257.1</v>
+      </c>
+      <c r="Z13">
+        <v>112</v>
+      </c>
+      <c r="AA13">
+        <v>46.3</v>
+      </c>
+      <c r="AB13">
+        <v>0.1</v>
+      </c>
+      <c r="AC13">
+        <v>88300</v>
+      </c>
+      <c r="AD13">
+        <v>364.9</v>
+      </c>
+      <c r="AE13">
+        <v>2431.5</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>36858</v>
+      </c>
+      <c r="AK13">
+        <v>242</v>
+      </c>
+      <c r="AL13">
         <v>1549.1</v>
       </c>
-      <c r="Z13">
+      <c r="AM13">
         <v>57</v>
       </c>
-      <c r="AA13">
+      <c r="AN13">
         <v>23.6</v>
       </c>
-      <c r="AB13">
+      <c r="AO13">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:41">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>142150</v>
+        <v>35940</v>
       </c>
       <c r="D14">
-        <v>1341</v>
+        <v>339.1</v>
       </c>
       <c r="E14">
-        <v>4180.8</v>
+        <v>783.8</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1427,37 +1868,37 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>906.2</v>
+        <v>278.8</v>
       </c>
       <c r="J14">
-        <v>30621</v>
+        <v>4906</v>
       </c>
       <c r="K14">
         <v>106</v>
       </c>
       <c r="L14">
-        <v>2090.4</v>
+        <v>653.5</v>
       </c>
       <c r="M14">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="N14">
-        <v>64.2</v>
+        <v>51.9</v>
       </c>
       <c r="O14">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P14">
-        <v>41003</v>
+        <v>7521</v>
       </c>
       <c r="Q14">
-        <v>386.8</v>
+        <v>71</v>
       </c>
       <c r="R14">
-        <v>1407.2</v>
+        <v>321.9</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1466,34 +1907,74 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>250.8</v>
+        <v>23.2</v>
       </c>
       <c r="W14">
-        <v>13336</v>
+        <v>3183</v>
       </c>
       <c r="X14">
         <v>106</v>
       </c>
       <c r="Y14">
+        <v>136.7</v>
+      </c>
+      <c r="Z14">
+        <v>55</v>
+      </c>
+      <c r="AA14">
+        <v>51.9</v>
+      </c>
+      <c r="AB14">
+        <v>0.4</v>
+      </c>
+      <c r="AC14">
+        <v>41003</v>
+      </c>
+      <c r="AD14">
+        <v>386.8</v>
+      </c>
+      <c r="AE14">
+        <v>1407.2</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>250.8</v>
+      </c>
+      <c r="AJ14">
+        <v>13336</v>
+      </c>
+      <c r="AK14">
+        <v>106</v>
+      </c>
+      <c r="AL14">
         <v>1051.4</v>
       </c>
-      <c r="Z14">
+      <c r="AM14">
         <v>39</v>
       </c>
-      <c r="AA14">
+      <c r="AN14">
         <v>36.8</v>
       </c>
-      <c r="AB14">
+      <c r="AO14">
         <v>0.6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AB1"/>
+    <mergeCell ref="AC1:AO1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A14"/>
   </mergeCells>

--- a/data/analysis/social_media_analytics/pivot_tables/accreditation-country/museum_activity_groups__var2-accreditation-country.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/accreditation-country/museum_activity_groups__var2-accreditation-country.xlsx
@@ -705,37 +705,40 @@
         <v>-2.1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK4">
         <v>1</v>
       </c>
+      <c r="AL4">
+        <v>55</v>
+      </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO4">
-        <v>-1.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -744,13 +747,13 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>1250719</v>
+        <v>1470357</v>
       </c>
       <c r="D5">
-        <v>995.8</v>
+        <v>1170.7</v>
       </c>
       <c r="E5">
-        <v>2130.3</v>
+        <v>2595.5</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -759,37 +762,37 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="I5">
-        <v>1148.2</v>
+        <v>1372.8</v>
       </c>
       <c r="J5">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="K5">
         <v>1256</v>
       </c>
       <c r="L5">
-        <v>1350.7</v>
+        <v>1610.5</v>
       </c>
       <c r="M5">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="N5">
-        <v>73.7</v>
+        <v>72.7</v>
       </c>
       <c r="O5">
         <v>1.4</v>
       </c>
       <c r="P5">
-        <v>475903</v>
+        <v>541002</v>
       </c>
       <c r="Q5">
-        <v>378.9</v>
+        <v>430.7</v>
       </c>
       <c r="R5">
-        <v>1688.6</v>
+        <v>1830.2</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -798,37 +801,37 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>55.5</v>
+        <v>64</v>
       </c>
       <c r="V5">
-        <v>264.5</v>
+        <v>297.5</v>
       </c>
       <c r="W5">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="X5">
         <v>1256</v>
       </c>
       <c r="Y5">
-        <v>507.9</v>
+        <v>583.6</v>
       </c>
       <c r="Z5">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="AA5">
-        <v>74.59999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="AB5">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC5">
-        <v>476790</v>
+        <v>682778</v>
       </c>
       <c r="AD5">
-        <v>379.6</v>
+        <v>543.6</v>
       </c>
       <c r="AE5">
-        <v>675</v>
+        <v>668.9</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -837,28 +840,28 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>328.5</v>
       </c>
       <c r="AI5">
-        <v>593.5</v>
+        <v>856.8</v>
       </c>
       <c r="AJ5">
-        <v>6335</v>
+        <v>5487</v>
       </c>
       <c r="AK5">
         <v>1256</v>
       </c>
       <c r="AL5">
-        <v>843.9</v>
+        <v>738.1</v>
       </c>
       <c r="AM5">
-        <v>565</v>
+        <v>925</v>
       </c>
       <c r="AN5">
-        <v>45</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AO5">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -867,13 +870,13 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>27470</v>
+        <v>36873</v>
       </c>
       <c r="D6">
-        <v>670</v>
+        <v>899.3</v>
       </c>
       <c r="E6">
-        <v>2327.7</v>
+        <v>3581.2</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -885,34 +888,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>582</v>
+        <v>675</v>
       </c>
       <c r="J6">
-        <v>14888</v>
+        <v>22972</v>
       </c>
       <c r="K6">
         <v>41</v>
       </c>
       <c r="L6">
-        <v>1445.8</v>
+        <v>2048.5</v>
       </c>
       <c r="M6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N6">
-        <v>46.3</v>
+        <v>43.9</v>
       </c>
       <c r="O6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13077</v>
+        <v>20377</v>
       </c>
       <c r="Q6">
-        <v>319</v>
+        <v>497</v>
       </c>
       <c r="R6">
-        <v>1623.2</v>
+        <v>2757.8</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -924,34 +927,34 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="W6">
-        <v>10421</v>
+        <v>17700</v>
       </c>
       <c r="X6">
         <v>41</v>
       </c>
       <c r="Y6">
-        <v>653.8</v>
+        <v>1072.5</v>
       </c>
       <c r="Z6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA6">
-        <v>48.8</v>
+        <v>46.3</v>
       </c>
       <c r="AB6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AC6">
-        <v>19162</v>
+        <v>14135</v>
       </c>
       <c r="AD6">
-        <v>467.4</v>
+        <v>344.8</v>
       </c>
       <c r="AE6">
-        <v>1337.5</v>
+        <v>425.6</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -960,28 +963,28 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="AI6">
-        <v>492</v>
+        <v>717</v>
       </c>
       <c r="AJ6">
-        <v>6887</v>
+        <v>1516</v>
       </c>
       <c r="AK6">
         <v>41</v>
       </c>
       <c r="AL6">
-        <v>1474</v>
+        <v>589</v>
       </c>
       <c r="AM6">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AN6">
-        <v>31.7</v>
+        <v>58.5</v>
       </c>
       <c r="AO6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -990,13 +993,13 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>234286</v>
+        <v>269530</v>
       </c>
       <c r="D7">
-        <v>929.7</v>
+        <v>1069.6</v>
       </c>
       <c r="E7">
-        <v>3274.8</v>
+        <v>3569.8</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1005,37 +1008,37 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>71.5</v>
+        <v>62.5</v>
       </c>
       <c r="I7">
-        <v>892.2</v>
+        <v>1033.8</v>
       </c>
       <c r="J7">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="K7">
         <v>252</v>
       </c>
       <c r="L7">
-        <v>1604.7</v>
+        <v>1911.6</v>
       </c>
       <c r="M7">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N7">
-        <v>57.9</v>
+        <v>56</v>
       </c>
       <c r="O7">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="P7">
-        <v>72326</v>
+        <v>84346</v>
       </c>
       <c r="Q7">
-        <v>287</v>
+        <v>334.7</v>
       </c>
       <c r="R7">
-        <v>1087.4</v>
+        <v>1284.3</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1044,37 +1047,37 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V7">
-        <v>194.8</v>
+        <v>219.2</v>
       </c>
       <c r="W7">
-        <v>9692</v>
+        <v>11140</v>
       </c>
       <c r="X7">
         <v>252</v>
       </c>
       <c r="Y7">
-        <v>495.4</v>
+        <v>594</v>
       </c>
       <c r="Z7">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AA7">
-        <v>57.9</v>
+        <v>56.3</v>
       </c>
       <c r="AB7">
         <v>0.6</v>
       </c>
       <c r="AC7">
-        <v>72603</v>
+        <v>123602</v>
       </c>
       <c r="AD7">
-        <v>288.1</v>
+        <v>490.5</v>
       </c>
       <c r="AE7">
-        <v>670.1</v>
+        <v>857.8</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1083,28 +1086,28 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AI7">
-        <v>345.2</v>
+        <v>703.8</v>
       </c>
       <c r="AJ7">
-        <v>6448</v>
+        <v>8295</v>
       </c>
       <c r="AK7">
         <v>252</v>
       </c>
       <c r="AL7">
-        <v>942.9</v>
+        <v>763</v>
       </c>
       <c r="AM7">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AN7">
-        <v>30.6</v>
+        <v>64.3</v>
       </c>
       <c r="AO7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1113,13 +1116,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>61363</v>
+        <v>72063</v>
       </c>
       <c r="D8">
-        <v>607.6</v>
+        <v>713.5</v>
       </c>
       <c r="E8">
-        <v>1033.9</v>
+        <v>1214.9</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1128,37 +1131,37 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="I8">
-        <v>791</v>
+        <v>948</v>
       </c>
       <c r="J8">
-        <v>5793</v>
+        <v>6588</v>
       </c>
       <c r="K8">
         <v>101</v>
       </c>
       <c r="L8">
-        <v>1006</v>
+        <v>1201</v>
       </c>
       <c r="M8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N8">
-        <v>60.4</v>
+        <v>59.4</v>
       </c>
       <c r="O8">
         <v>0.8</v>
       </c>
       <c r="P8">
-        <v>11708</v>
+        <v>13377</v>
       </c>
       <c r="Q8">
-        <v>115.9</v>
+        <v>132.4</v>
       </c>
       <c r="R8">
-        <v>232.2</v>
+        <v>268.3</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1167,37 +1170,37 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V8">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="W8">
-        <v>1312</v>
+        <v>1567</v>
       </c>
       <c r="X8">
         <v>101</v>
       </c>
       <c r="Y8">
-        <v>188.8</v>
+        <v>219.3</v>
       </c>
       <c r="Z8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA8">
-        <v>61.4</v>
+        <v>60.4</v>
       </c>
       <c r="AB8">
         <v>0.8</v>
       </c>
       <c r="AC8">
-        <v>63873</v>
+        <v>57281</v>
       </c>
       <c r="AD8">
-        <v>632.4</v>
+        <v>567.1</v>
       </c>
       <c r="AE8">
-        <v>1610.8</v>
+        <v>716.3</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1206,28 +1209,28 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>52</v>
+        <v>306</v>
       </c>
       <c r="AI8">
-        <v>602</v>
+        <v>777</v>
       </c>
       <c r="AJ8">
-        <v>13336</v>
+        <v>3498</v>
       </c>
       <c r="AK8">
         <v>101</v>
       </c>
       <c r="AL8">
-        <v>1252.4</v>
+        <v>830.2</v>
       </c>
       <c r="AM8">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="AN8">
-        <v>50.5</v>
+        <v>68.3</v>
       </c>
       <c r="AO8">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1238,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>1479</v>
+        <v>1929</v>
       </c>
       <c r="D9">
-        <v>64.3</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="E9">
-        <v>251.1</v>
+        <v>343.5</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1259,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1200</v>
+        <v>1648</v>
       </c>
       <c r="K9">
         <v>23</v>
       </c>
       <c r="L9">
-        <v>369.8</v>
+        <v>482.2</v>
       </c>
       <c r="M9">
         <v>4</v>
@@ -1277,13 +1280,13 @@
         <v>-1.3</v>
       </c>
       <c r="P9">
-        <v>500</v>
+        <v>698</v>
       </c>
       <c r="Q9">
-        <v>21.7</v>
+        <v>30.3</v>
       </c>
       <c r="R9">
-        <v>93</v>
+        <v>133.8</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1298,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>447</v>
+        <v>643</v>
       </c>
       <c r="X9">
         <v>23</v>
       </c>
       <c r="Y9">
-        <v>125</v>
+        <v>174.5</v>
       </c>
       <c r="Z9">
         <v>4</v>
@@ -1316,13 +1319,13 @@
         <v>-1.3</v>
       </c>
       <c r="AC9">
-        <v>842</v>
+        <v>2230</v>
       </c>
       <c r="AD9">
-        <v>36.6</v>
+        <v>97</v>
       </c>
       <c r="AE9">
-        <v>135.2</v>
+        <v>256.2</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1337,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>619</v>
+        <v>981</v>
       </c>
       <c r="AK9">
         <v>23</v>
       </c>
       <c r="AL9">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="AM9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN9">
-        <v>8.699999999999999</v>
+        <v>21.7</v>
       </c>
       <c r="AO9">
-        <v>-1.2</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1361,13 +1364,13 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>636081</v>
+        <v>747611</v>
       </c>
       <c r="D10">
-        <v>509.3</v>
+        <v>598.6</v>
       </c>
       <c r="E10">
-        <v>1272</v>
+        <v>1535.1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1379,34 +1382,34 @@
         <v>7</v>
       </c>
       <c r="I10">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="J10">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="K10">
         <v>1249</v>
       </c>
       <c r="L10">
-        <v>966.7</v>
+        <v>1139.7</v>
       </c>
       <c r="M10">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="N10">
-        <v>52.7</v>
+        <v>52.5</v>
       </c>
       <c r="O10">
         <v>0.4</v>
       </c>
       <c r="P10">
-        <v>272425</v>
+        <v>319839</v>
       </c>
       <c r="Q10">
-        <v>218.1</v>
+        <v>256.1</v>
       </c>
       <c r="R10">
-        <v>1067.8</v>
+        <v>1277.3</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1418,34 +1421,34 @@
         <v>3</v>
       </c>
       <c r="V10">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="W10">
-        <v>20111</v>
+        <v>24554</v>
       </c>
       <c r="X10">
         <v>1249</v>
       </c>
       <c r="Y10">
-        <v>404.8</v>
+        <v>473.1</v>
       </c>
       <c r="Z10">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="AA10">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="AB10">
         <v>0.5</v>
       </c>
       <c r="AC10">
-        <v>395842</v>
+        <v>454111</v>
       </c>
       <c r="AD10">
-        <v>316.9</v>
+        <v>363.6</v>
       </c>
       <c r="AE10">
-        <v>1487.8</v>
+        <v>608.1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1454,28 +1457,28 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AI10">
-        <v>222</v>
+        <v>514</v>
       </c>
       <c r="AJ10">
-        <v>36948</v>
+        <v>5226</v>
       </c>
       <c r="AK10">
         <v>1249</v>
       </c>
       <c r="AL10">
-        <v>1033.5</v>
+        <v>619.5</v>
       </c>
       <c r="AM10">
-        <v>383</v>
+        <v>733</v>
       </c>
       <c r="AN10">
-        <v>30.7</v>
+        <v>58.7</v>
       </c>
       <c r="AO10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1484,13 +1487,13 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>50940</v>
+        <v>55848</v>
       </c>
       <c r="D11">
-        <v>3396</v>
+        <v>3723.2</v>
       </c>
       <c r="E11">
-        <v>12233.9</v>
+        <v>13441.8</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1505,13 +1508,13 @@
         <v>51.5</v>
       </c>
       <c r="J11">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="K11">
         <v>15</v>
       </c>
       <c r="L11">
-        <v>10188</v>
+        <v>11169.6</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -1523,13 +1526,13 @@
         <v>-0.5</v>
       </c>
       <c r="P11">
-        <v>21724</v>
+        <v>25527</v>
       </c>
       <c r="Q11">
-        <v>1448.3</v>
+        <v>1701.8</v>
       </c>
       <c r="R11">
-        <v>5378.6</v>
+        <v>6341.5</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1541,16 +1544,16 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="W11">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="X11">
         <v>15</v>
       </c>
       <c r="Y11">
-        <v>4344.8</v>
+        <v>5105.4</v>
       </c>
       <c r="Z11">
         <v>5</v>
@@ -1562,13 +1565,13 @@
         <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>675</v>
+        <v>1993</v>
       </c>
       <c r="AD11">
-        <v>45</v>
+        <v>132.9</v>
       </c>
       <c r="AE11">
-        <v>174.3</v>
+        <v>305.3</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1580,25 +1583,25 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AJ11">
-        <v>675</v>
+        <v>932</v>
       </c>
       <c r="AK11">
         <v>15</v>
       </c>
       <c r="AL11">
-        <v>675</v>
+        <v>398.6</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AN11">
-        <v>6.7</v>
+        <v>33.3</v>
       </c>
       <c r="AO11">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1607,13 +1610,13 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>24296</v>
+        <v>29308</v>
       </c>
       <c r="D12">
-        <v>458.4</v>
+        <v>553</v>
       </c>
       <c r="E12">
-        <v>1113.8</v>
+        <v>1332.4</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1625,16 +1628,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="J12">
-        <v>5535</v>
+        <v>6402</v>
       </c>
       <c r="K12">
         <v>53</v>
       </c>
       <c r="L12">
-        <v>934.5</v>
+        <v>1127.2</v>
       </c>
       <c r="M12">
         <v>26</v>
@@ -1643,16 +1646,16 @@
         <v>49.1</v>
       </c>
       <c r="O12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P12">
-        <v>5079</v>
+        <v>6425</v>
       </c>
       <c r="Q12">
-        <v>95.8</v>
+        <v>121.2</v>
       </c>
       <c r="R12">
-        <v>205</v>
+        <v>255.3</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1664,16 +1667,16 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="W12">
-        <v>915</v>
+        <v>1182</v>
       </c>
       <c r="X12">
         <v>53</v>
       </c>
       <c r="Y12">
-        <v>220.8</v>
+        <v>279.3</v>
       </c>
       <c r="Z12">
         <v>23</v>
@@ -1685,13 +1688,13 @@
         <v>-0</v>
       </c>
       <c r="AC12">
-        <v>27526</v>
+        <v>20215</v>
       </c>
       <c r="AD12">
-        <v>519.4</v>
+        <v>381.4</v>
       </c>
       <c r="AE12">
-        <v>1431.5</v>
+        <v>473.1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1700,28 +1703,28 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AI12">
-        <v>537</v>
+        <v>697</v>
       </c>
       <c r="AJ12">
-        <v>7664</v>
+        <v>1627</v>
       </c>
       <c r="AK12">
         <v>53</v>
       </c>
       <c r="AL12">
-        <v>1529.2</v>
+        <v>697.1</v>
       </c>
       <c r="AM12">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AN12">
-        <v>34</v>
+        <v>54.7</v>
       </c>
       <c r="AO12">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1730,13 +1733,13 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>81255</v>
+        <v>96445</v>
       </c>
       <c r="D13">
-        <v>335.8</v>
+        <v>398.5</v>
       </c>
       <c r="E13">
-        <v>942.4</v>
+        <v>1113.9</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1748,34 +1751,34 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="J13">
-        <v>8541</v>
+        <v>9810</v>
       </c>
       <c r="K13">
         <v>242</v>
       </c>
       <c r="L13">
-        <v>759.4</v>
+        <v>909.9</v>
       </c>
       <c r="M13">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N13">
-        <v>44.2</v>
+        <v>43.8</v>
       </c>
       <c r="O13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>28799</v>
+        <v>33629</v>
       </c>
       <c r="Q13">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="R13">
-        <v>546.1</v>
+        <v>630.2</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1787,34 +1790,34 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>47</v>
+        <v>53.8</v>
       </c>
       <c r="W13">
-        <v>6050</v>
+        <v>6901</v>
       </c>
       <c r="X13">
         <v>242</v>
       </c>
       <c r="Y13">
-        <v>257.1</v>
+        <v>303</v>
       </c>
       <c r="Z13">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA13">
-        <v>46.3</v>
+        <v>45.9</v>
       </c>
       <c r="AB13">
         <v>0.1</v>
       </c>
       <c r="AC13">
-        <v>88300</v>
+        <v>73772</v>
       </c>
       <c r="AD13">
-        <v>364.9</v>
+        <v>304.8</v>
       </c>
       <c r="AE13">
-        <v>2431.5</v>
+        <v>587.6</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1823,25 +1826,25 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>449.2</v>
       </c>
       <c r="AJ13">
-        <v>36858</v>
+        <v>6193</v>
       </c>
       <c r="AK13">
         <v>242</v>
       </c>
       <c r="AL13">
-        <v>1549.1</v>
+        <v>567.5</v>
       </c>
       <c r="AM13">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="AN13">
-        <v>23.6</v>
+        <v>53.7</v>
       </c>
       <c r="AO13">
         <v>-0.2</v>
@@ -1853,13 +1856,13 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>35940</v>
+        <v>42984</v>
       </c>
       <c r="D14">
-        <v>339.1</v>
+        <v>405.5</v>
       </c>
       <c r="E14">
-        <v>783.8</v>
+        <v>977.1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1871,34 +1874,34 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>278.8</v>
+        <v>355.5</v>
       </c>
       <c r="J14">
-        <v>4906</v>
+        <v>6478</v>
       </c>
       <c r="K14">
         <v>106</v>
       </c>
       <c r="L14">
-        <v>653.5</v>
+        <v>767.6</v>
       </c>
       <c r="M14">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N14">
-        <v>51.9</v>
+        <v>52.8</v>
       </c>
       <c r="O14">
         <v>0.4</v>
       </c>
       <c r="P14">
-        <v>7521</v>
+        <v>9034</v>
       </c>
       <c r="Q14">
-        <v>71</v>
+        <v>85.2</v>
       </c>
       <c r="R14">
-        <v>321.9</v>
+        <v>408.1</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1910,16 +1913,16 @@
         <v>1</v>
       </c>
       <c r="V14">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="W14">
-        <v>3183</v>
+        <v>4083</v>
       </c>
       <c r="X14">
         <v>106</v>
       </c>
       <c r="Y14">
-        <v>136.7</v>
+        <v>164.3</v>
       </c>
       <c r="Z14">
         <v>55</v>
@@ -1931,13 +1934,13 @@
         <v>0.4</v>
       </c>
       <c r="AC14">
-        <v>41003</v>
+        <v>34514</v>
       </c>
       <c r="AD14">
-        <v>386.8</v>
+        <v>325.6</v>
       </c>
       <c r="AE14">
-        <v>1407.2</v>
+        <v>614.5</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1946,28 +1949,28 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AI14">
-        <v>250.8</v>
+        <v>379.8</v>
       </c>
       <c r="AJ14">
-        <v>13336</v>
+        <v>3597</v>
       </c>
       <c r="AK14">
         <v>106</v>
       </c>
       <c r="AL14">
-        <v>1051.4</v>
+        <v>585</v>
       </c>
       <c r="AM14">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AN14">
-        <v>36.8</v>
+        <v>55.7</v>
       </c>
       <c r="AO14">
-        <v>0.6</v>
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
